--- a/data/trans_camb/P16A08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.430431188463546</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.110859841596234</v>
+        <v>2.110859841596233</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.36131068160579</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.091871338621432</v>
+        <v>-1.223354500405943</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4448303380056988</v>
+        <v>-0.4933632796922003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1266045888952911</v>
+        <v>-0.3388486752482825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.584374230322153</v>
+        <v>0.4912012862704668</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4106139129103309</v>
+        <v>-0.2117985531286617</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.365173151199681</v>
+        <v>0.4833810898746494</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.119392526641608</v>
+        <v>0.1705078758848267</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0801353431548408</v>
+        <v>0.0230857748005781</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4572636120681069</v>
+        <v>0.5841292230464759</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.889151049311034</v>
+        <v>1.728916525325823</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.612677595267941</v>
+        <v>2.677778328606223</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.394822600147371</v>
+        <v>3.387904271658612</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.219620207424456</v>
+        <v>4.315429679408657</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.199419131569117</v>
+        <v>3.415227658155263</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.917069206923139</v>
+        <v>4.06127055236905</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.561574469455892</v>
+        <v>2.497848005474836</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.487019481438899</v>
+        <v>2.440517830555181</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.074533725727234</v>
+        <v>3.243809118578891</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.6609957695083934</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9754187664343044</v>
+        <v>0.975418766434304</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.6998829188341148</v>
@@ -769,7 +769,7 @@
         <v>0.621405416866011</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.9318106881533739</v>
+        <v>0.9318106881533735</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4917643184391931</v>
+        <v>-0.4912656612193408</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2319011723608651</v>
+        <v>-0.2687620580239821</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1499339484109577</v>
+        <v>-0.2429254015877426</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1248367113084427</v>
+        <v>0.1519777609910051</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1937660880685126</v>
+        <v>-0.1148193806327659</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08904175342303786</v>
+        <v>0.09813951988120918</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02951494242011051</v>
+        <v>0.06041740140653589</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.001620102708226386</v>
+        <v>-0.01625857216839742</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1619936843918131</v>
+        <v>0.187722709063869</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.675309738034297</v>
+        <v>1.540921063213186</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.573775288469347</v>
+        <v>2.299292465778903</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.083029884958047</v>
+        <v>2.864190752034063</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.903969690346149</v>
+        <v>3.108489915376646</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.956774863936454</v>
+        <v>2.386747491742701</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.779715744538151</v>
+        <v>2.811425515218685</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.725997353125033</v>
+        <v>1.706878643814244</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.781993675728791</v>
+        <v>1.623440471066564</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.021866357381718</v>
+        <v>2.194387267721681</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.386773073418039</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7085258388364067</v>
+        <v>0.708525838836406</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.053073431794124</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6113956432909338</v>
+        <v>-0.3990672837524392</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.124099969250199</v>
+        <v>-1.278996225795371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9620919907654747</v>
+        <v>-0.8425749058329499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04672534335218542</v>
+        <v>0.1177038888718158</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.334251359306752</v>
+        <v>0.1393520183709004</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.525716181868684</v>
+        <v>-1.794773773652599</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4631648775517415</v>
+        <v>0.3672613549478113</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06299776532452277</v>
+        <v>-0.01799218292817986</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.6679549721935204</v>
+        <v>-0.8266897923022564</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.636448541852495</v>
+        <v>2.85109010571128</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.987162586817879</v>
+        <v>1.811829204216736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.303491156876415</v>
+        <v>2.519048460054247</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.87131893460097</v>
+        <v>4.137047218059458</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.140037268734066</v>
+        <v>4.041597499784785</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.695795757678423</v>
+        <v>1.612884770392462</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.986767522844439</v>
+        <v>2.802247462323947</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.523478423850546</v>
+        <v>2.53064335343377</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.638465907921124</v>
+        <v>1.505417946200867</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1593156113681545</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2918487220085058</v>
+        <v>0.2918487220085055</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5528450936682796</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2322705433254686</v>
+        <v>-0.143634086026605</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3826821394226425</v>
+        <v>-0.3823695119528213</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3388608941047517</v>
+        <v>-0.2968530350394982</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01129939954923261</v>
+        <v>-0.00211221273723197</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05458046715460334</v>
+        <v>0.03343275928258373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3252705161950922</v>
+        <v>-0.3648922707500763</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1068308413389221</v>
+        <v>0.08773054609224391</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.007909079971343051</v>
+        <v>-0.005274984418709864</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1874546039514974</v>
+        <v>-0.2316211742171791</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.452818842516171</v>
+        <v>1.840705869813383</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.170624040241387</v>
+        <v>1.149633854754217</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.270230961012278</v>
+        <v>1.560321532698004</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.417975889746017</v>
+        <v>1.453239796406718</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.486957350098511</v>
+        <v>1.469199889398267</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5990382033249697</v>
+        <v>0.600812105253046</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.192814737080599</v>
+        <v>1.108041508645928</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.043542882392783</v>
+        <v>1.019951267747404</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6377676689782785</v>
+        <v>0.5888404096945877</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>2.555696597637023</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.708111480665384</v>
+        <v>1.708111480665382</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.63546336509499</v>
@@ -1092,7 +1092,7 @@
         <v>1.739281748541743</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.898415187759898</v>
+        <v>1.898415187759899</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.03083435387861722</v>
+        <v>-0.002256582078750644</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9449626474009512</v>
+        <v>-0.6951740982991808</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09393735850486044</v>
+        <v>0.2291921702952051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9281864926143071</v>
+        <v>-1.158203166553687</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.243990472368624</v>
+        <v>0.07674797531586092</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.5886934323718568</v>
+        <v>-0.5078943051883489</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1356475743330483</v>
+        <v>0.2679705298845337</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3090736031755774</v>
+        <v>0.3052286274870258</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3731058635142261</v>
+        <v>0.4276727449808894</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.862347019934205</v>
+        <v>3.803335173507325</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.619272939674458</v>
+        <v>2.760561348072876</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.013318534085008</v>
+        <v>4.073781961191126</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.663200925692802</v>
+        <v>3.552090393890967</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.017595117368274</v>
+        <v>5.069391882793275</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.978242825253961</v>
+        <v>3.685917990212336</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.112022708878869</v>
+        <v>3.351734039182746</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.214338364343224</v>
+        <v>3.203352000094823</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.294663694515138</v>
+        <v>3.388299594694907</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.5916071601141972</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3954033445007649</v>
+        <v>0.3954033445007644</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5029948079067162</v>
@@ -1197,7 +1197,7 @@
         <v>0.5349246627438817</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5838669352517238</v>
+        <v>0.5838669352517241</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05179299440419394</v>
+        <v>-0.04404962449706277</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3354527950682676</v>
+        <v>-0.2519608043995346</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.003157958507695881</v>
+        <v>-0.0049878884462912</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1704798518696394</v>
+        <v>-0.2040626614092051</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0309920921622388</v>
+        <v>-0.008572525785266608</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1145117038038761</v>
+        <v>-0.09965225434027028</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02503946617889711</v>
+        <v>0.05621495072714919</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.07794642406500939</v>
+        <v>0.06827519105915228</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.09416947128198092</v>
+        <v>0.09242410579848349</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.906092411068907</v>
+        <v>2.524578476458726</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.861630727008438</v>
+        <v>2.322124401624012</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.84093141366612</v>
+        <v>2.917379498583316</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.199081318794306</v>
+        <v>1.18531589735458</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.561534193810319</v>
+        <v>1.544814469310577</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.232104808123418</v>
+        <v>1.119907328031994</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.193025153439899</v>
+        <v>1.264794663321114</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.258301595202016</v>
+        <v>1.24407576083802</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.318991053450696</v>
+        <v>1.306715370134752</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6437639679159616</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.07693777316223789</v>
+        <v>0.0769377731622372</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.7966713803824833</v>
@@ -1297,7 +1297,7 @@
         <v>-0.09655955403899685</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.7553673627264064</v>
+        <v>0.755367362726407</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.7290657148580203</v>
@@ -1306,7 +1306,7 @@
         <v>0.2587251831731592</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.4482388172119024</v>
+        <v>0.4482388172119038</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.11333276824447</v>
+        <v>-1.048529802203439</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.105922969586943</v>
+        <v>-0.983797104007857</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.547010278586113</v>
+        <v>-1.485543121408816</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.344218216163378</v>
+        <v>-1.171965954816483</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.909148399208101</v>
+        <v>-2.182454189483611</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.058115460364086</v>
+        <v>-1.227349845715471</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6749659461689511</v>
+        <v>-0.5978516990227278</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.102229383298315</v>
+        <v>-1.04257456162003</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.7939882616931921</v>
+        <v>-0.6374975166262697</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.24760645171136</v>
+        <v>2.287949892750392</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.359254622647455</v>
+        <v>2.352413526313729</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.787534880545924</v>
+        <v>1.791506391398408</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.692917542319989</v>
+        <v>2.914347653933866</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.923947124669681</v>
+        <v>1.945039870851162</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.68149963368727</v>
+        <v>2.588673979740736</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.034936931420876</v>
+        <v>2.163728518614807</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.607450768097512</v>
+        <v>1.559971184944445</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.720144893989046</v>
+        <v>1.79507584925729</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2155796608801366</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.02576444143166665</v>
+        <v>0.02576444143166641</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1595016603619117</v>
@@ -1402,7 +1402,7 @@
         <v>-0.01933219840987822</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1512321786684698</v>
+        <v>0.15123217866847</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1804910383419498</v>
@@ -1411,7 +1411,7 @@
         <v>0.0640512590353102</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1109681718601991</v>
+        <v>0.1109681718601994</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3029311080550421</v>
+        <v>-0.2964423421032903</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2965837245617709</v>
+        <v>-0.2756180105485076</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.418922161694224</v>
+        <v>-0.4059632842409165</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.233300561770938</v>
+        <v>-0.2101544093615602</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3301918171107421</v>
+        <v>-0.356894578959743</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1809141658673382</v>
+        <v>-0.2056796690615721</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1362565663730095</v>
+        <v>-0.1293489260319848</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2327500616088004</v>
+        <v>-0.2227045760883138</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1625126037558516</v>
+        <v>-0.1411104425921656</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.024259700979684</v>
+        <v>1.010929052182674</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9972701705071347</v>
+        <v>1.060903693072448</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7790815390481822</v>
+        <v>0.7929535988885629</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6619089561322961</v>
+        <v>0.7178926616057325</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4734498201375967</v>
+        <v>0.5026684829532433</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6421066226944343</v>
+        <v>0.6518159162129702</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6019112826263219</v>
+        <v>0.6292297889777314</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4771479136155</v>
+        <v>0.4690464080841899</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5206542303362716</v>
+        <v>0.5314080293740375</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.458951067232117</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.040170439171232</v>
+        <v>1.040170439171231</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.314349975998779</v>
@@ -1520,7 +1520,7 @@
         <v>1.084038531993588</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.02867322268313</v>
+        <v>1.028673222683128</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1403879236943159</v>
+        <v>0.2376024625719523</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2186943623373472</v>
+        <v>-0.0843783868037607</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1875799238595241</v>
+        <v>0.118571843097571</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5341045535772824</v>
+        <v>0.5450875976747042</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3722442939597923</v>
+        <v>0.3574204229552996</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1163182888002122</v>
+        <v>0.09879561596964768</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6450342824310987</v>
+        <v>0.6462170749775511</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3944895976862208</v>
+        <v>0.3926807447935868</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.41505280310138</v>
+        <v>0.3487287603220869</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.84877008134343</v>
+        <v>1.885204181752329</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.557569078981915</v>
+        <v>1.533871664697133</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.950051038599952</v>
+        <v>1.896694438440768</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.63256573292135</v>
+        <v>2.669535223020862</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.450175911162669</v>
+        <v>2.500526361557207</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.034920182548018</v>
+        <v>2.07589312162768</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.992593419897673</v>
+        <v>2.00442402908772</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.804244698115951</v>
+        <v>1.748247658813418</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.650245146319572</v>
+        <v>1.64651709450418</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.3727103595528757</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2657267314079854</v>
+        <v>0.2657267314079853</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4155381385404722</v>
@@ -1625,7 +1625,7 @@
         <v>0.3427240551729427</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3252200433110316</v>
+        <v>0.3252200433110312</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.0329047356484761</v>
+        <v>0.07895440623826105</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08113437869481292</v>
+        <v>-0.03531990606419048</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.06781631221945468</v>
+        <v>0.03901802543959845</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1242182192715751</v>
+        <v>0.1194950930201816</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0884271217674957</v>
+        <v>0.07748732269141169</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02273223254854245</v>
+        <v>0.02255032937440867</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1802110805669028</v>
+        <v>0.1760550819380063</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1126489038113126</v>
+        <v>0.1044831477075338</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1209653891613039</v>
+        <v>0.09960460774754572</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9000488115342049</v>
+        <v>0.9330157807940362</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7595518196971653</v>
+        <v>0.7735909006309354</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9830591730440662</v>
+        <v>0.9052495955117041</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7613486408920279</v>
+        <v>0.7742876149596699</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7220055121404992</v>
+        <v>0.7408822512954366</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5866196450150273</v>
+        <v>0.6204666424302541</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7045209284200571</v>
+        <v>0.6801838633463699</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6288070488915284</v>
+        <v>0.6108411532069203</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5622124867555109</v>
+        <v>0.5919247340234938</v>
       </c>
     </row>
     <row r="34">
